--- a/DNS_shop_advanced.xlsx
+++ b/DNS_shop_advanced.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +577,10 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>[38280]</v>
       </c>
       <c r="C2" t="str">
-        <v>Кабель соединительный Wize HDMI - HDMI, 5 м</v>
+        <v>Переходник Espada HDMI - VGA+Jack 3.5, 0.2 м</v>
       </c>
       <c r="D2" t="str">
         <v>999 ₽</v>
@@ -616,7 +616,7 @@
         <v/>
       </c>
       <c r="O2" t="str">
-        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/1b90ffc41b48a6a9d7f7e2232613509e/0998e6006f260019555093c0a5168fbf693509ea8c774080ef1fc5d1ba5ba89e.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/3763760032d1701c0ac38166a71cb8f4/3b9853d41bb55affcb6404e1b09b381e7f65b538fdc3c86682516501ed3007f1.jpg</v>
       </c>
       <c r="P2" t="str">
         <v/>
@@ -628,13 +628,13 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <v/>
+        <v>Espada</v>
       </c>
       <c r="T2" t="str">
-        <v/>
+        <v>переходник</v>
       </c>
       <c r="U2" t="str">
-        <v/>
+        <v>белый</v>
       </c>
       <c r="V2" t="str">
         <v/>
@@ -643,13 +643,13 @@
         <v/>
       </c>
       <c r="X2" t="str">
-        <v/>
+        <v>0.2 м</v>
       </c>
       <c r="Y2" t="str">
         <v/>
       </c>
       <c r="Z2" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA2" t="str">
         <v/>
@@ -727,10 +727,10 @@
         <v/>
       </c>
       <c r="AZ2" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA2" t="str">
-        <v/>
+        <v>6 мес.</v>
       </c>
       <c r="BB2" t="str">
         <v/>
@@ -747,10 +747,10 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>[C308W]</v>
       </c>
       <c r="C3" t="str">
-        <v>Переходник DEXP HDMI - VGA+Jack 3.5, 0.2 м</v>
+        <v>Переходник Orient DisplayPort - VGA, 0.2 м</v>
       </c>
       <c r="D3" t="str">
         <v>999 ₽</v>
@@ -786,7 +786,7 @@
         <v/>
       </c>
       <c r="O3" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/e6fadde399cba06969a3779b5ee7f172/17f48375d598d2e7747c9182f2b0d18dfcdb5674a2164779292ecb49bcab23a0.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/06ed4ade7b18b2968f47b343b4329466/3681c0e17eac277cdc153a0b44f751ace863f77771d038740706cbb95a5d6700.jpg</v>
       </c>
       <c r="P3" t="str">
         <v/>
@@ -798,13 +798,13 @@
         <v/>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>Orient</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>переходник</v>
       </c>
       <c r="U3" t="str">
-        <v/>
+        <v>белый</v>
       </c>
       <c r="V3" t="str">
         <v/>
@@ -813,13 +813,13 @@
         <v/>
       </c>
       <c r="X3" t="str">
-        <v/>
+        <v>0.2 м</v>
       </c>
       <c r="Y3" t="str">
         <v/>
       </c>
       <c r="Z3" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA3" t="str">
         <v/>
@@ -897,10 +897,10 @@
         <v/>
       </c>
       <c r="AZ3" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA3" t="str">
-        <v/>
+        <v>6 мес.</v>
       </c>
       <c r="BB3" t="str">
         <v/>
@@ -917,13 +917,13 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>[CDmDm018B1.4]</v>
       </c>
       <c r="C4" t="str">
-        <v>Переходник Espada HDMI - VGA+Jack 3.5, 0.2 м</v>
+        <v>Кабель соединительный DEXP DisplayPort - DisplayPort, 1.8 м</v>
       </c>
       <c r="D4" t="str">
-        <v>999 ₽</v>
+        <v>1 050 ₽</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -956,7 +956,7 @@
         <v/>
       </c>
       <c r="O4" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/3763760032d1701c0ac38166a71cb8f4/3b9853d41bb55affcb6404e1b09b381e7f65b538fdc3c86682516501ed3007f1.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/c552a28d7e4e15acb85e545cde53cb9b/f4e44328e813f9f81c4b6e09694efe8049925890f4fef6dcdd70a4ed1ca85090.jpg</v>
       </c>
       <c r="P4" t="str">
         <v/>
@@ -968,13 +968,13 @@
         <v/>
       </c>
       <c r="S4" t="str">
-        <v/>
+        <v>DEXP</v>
       </c>
       <c r="T4" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="U4" t="str">
-        <v/>
+        <v>черный</v>
       </c>
       <c r="V4" t="str">
         <v/>
@@ -983,13 +983,13 @@
         <v/>
       </c>
       <c r="X4" t="str">
-        <v/>
+        <v>1.8 м</v>
       </c>
       <c r="Y4" t="str">
         <v/>
       </c>
       <c r="Z4" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA4" t="str">
         <v/>
@@ -1067,10 +1067,10 @@
         <v/>
       </c>
       <c r="AZ4" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA4" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB4" t="str">
         <v/>
@@ -1087,13 +1087,13 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>[DP103]</v>
       </c>
       <c r="C5" t="str">
-        <v>Переходник Orient DisplayPort - VGA, 0.2 м</v>
+        <v>Кабель соединительный Ugreen DisplayPort - DVI-D, 2 м</v>
       </c>
       <c r="D5" t="str">
-        <v>999 ₽</v>
+        <v>1 050 ₽</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
       <c r="O5" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/06ed4ade7b18b2968f47b343b4329466/3681c0e17eac277cdc153a0b44f751ace863f77771d038740706cbb95a5d6700.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/f81b1d26f27a14b5ea1136da9ad5cafa/3ed8c0ec3743b5b5c1c329dc65e7b15e3704601ed8c9c8cb14daa6d67ffb8811.jpg</v>
       </c>
       <c r="P5" t="str">
         <v/>
@@ -1138,13 +1138,13 @@
         <v/>
       </c>
       <c r="S5" t="str">
-        <v/>
+        <v>Ugreen</v>
       </c>
       <c r="T5" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="U5" t="str">
-        <v/>
+        <v>черный</v>
       </c>
       <c r="V5" t="str">
         <v/>
@@ -1153,13 +1153,13 @@
         <v/>
       </c>
       <c r="X5" t="str">
-        <v/>
+        <v>2 м</v>
       </c>
       <c r="Y5" t="str">
         <v/>
       </c>
       <c r="Z5" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA5" t="str">
         <v/>
@@ -1237,10 +1237,10 @@
         <v/>
       </c>
       <c r="AZ5" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA5" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB5" t="str">
         <v/>
@@ -1257,10 +1257,10 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>[DP105]</v>
       </c>
       <c r="C6" t="str">
-        <v>Кабель соединительный DEXP DisplayPort - DisplayPort, 1.8 м</v>
+        <v>Кабель соединительный Ugreen DisplayPort - VGA, 1.5 м</v>
       </c>
       <c r="D6" t="str">
         <v>1 050 ₽</v>
@@ -1296,7 +1296,7 @@
         <v/>
       </c>
       <c r="O6" t="str">
-        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/c552a28d7e4e15acb85e545cde53cb9b/f4e44328e813f9f81c4b6e09694efe8049925890f4fef6dcdd70a4ed1ca85090.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/fbb1794988a7225cd65da967e97d4d08/de4d2ddaed00158ac9811e641625600447c16fbca425c7b11a508bd3416715bc.jpg</v>
       </c>
       <c r="P6" t="str">
         <v/>
@@ -1308,13 +1308,13 @@
         <v/>
       </c>
       <c r="S6" t="str">
-        <v/>
+        <v>Ugreen</v>
       </c>
       <c r="T6" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="U6" t="str">
-        <v/>
+        <v>черный</v>
       </c>
       <c r="V6" t="str">
         <v/>
@@ -1323,13 +1323,13 @@
         <v/>
       </c>
       <c r="X6" t="str">
-        <v/>
+        <v>1.5 м</v>
       </c>
       <c r="Y6" t="str">
         <v/>
       </c>
       <c r="Z6" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA6" t="str">
         <v/>
@@ -1407,10 +1407,10 @@
         <v/>
       </c>
       <c r="AZ6" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA6" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB6" t="str">
         <v/>
@@ -1427,10 +1427,10 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>[HD106]</v>
       </c>
       <c r="C7" t="str">
-        <v>Кабель соединительный Ugreen DisplayPort - DVI-D, 2 м</v>
+        <v>Кабель соединительный Ugreen HDMI - DVI-D, 5 м</v>
       </c>
       <c r="D7" t="str">
         <v>1 050 ₽</v>
@@ -1466,7 +1466,7 @@
         <v/>
       </c>
       <c r="O7" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/f81b1d26f27a14b5ea1136da9ad5cafa/3ed8c0ec3743b5b5c1c329dc65e7b15e3704601ed8c9c8cb14daa6d67ffb8811.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/aeb16f9fb855d368109e239ec4911ab9/4e8d1aad9cbec63dab862b9f0e1c18459e4456db2add78b7d9c2c938e614cfdc.jpg</v>
       </c>
       <c r="P7" t="str">
         <v/>
@@ -1478,13 +1478,13 @@
         <v/>
       </c>
       <c r="S7" t="str">
-        <v/>
+        <v>Ugreen</v>
       </c>
       <c r="T7" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="U7" t="str">
-        <v/>
+        <v>черный</v>
       </c>
       <c r="V7" t="str">
         <v/>
@@ -1493,13 +1493,13 @@
         <v/>
       </c>
       <c r="X7" t="str">
-        <v/>
+        <v>5 м</v>
       </c>
       <c r="Y7" t="str">
         <v/>
       </c>
       <c r="Z7" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA7" t="str">
         <v/>
@@ -1577,10 +1577,10 @@
         <v/>
       </c>
       <c r="AZ7" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA7" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB7" t="str">
         <v/>
@@ -1597,10 +1597,10 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>черный</v>
       </c>
       <c r="C8" t="str">
-        <v>Кабель соединительный Ugreen DisplayPort - VGA, 1.5 м</v>
+        <v>Кабель соединительный Ugreen HDMI - HDMI, 1 м</v>
       </c>
       <c r="D8" t="str">
         <v>1 050 ₽</v>
@@ -1636,7 +1636,7 @@
         <v/>
       </c>
       <c r="O8" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/fbb1794988a7225cd65da967e97d4d08/de4d2ddaed00158ac9811e641625600447c16fbca425c7b11a508bd3416715bc.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/004897ae7753faf640e965c4912c263d/32a13e698616ac0796d9ebe1f86d85307604438a70fede00302ffb41f3568a0a.jpg</v>
       </c>
       <c r="P8" t="str">
         <v/>
@@ -1648,13 +1648,10 @@
         <v/>
       </c>
       <c r="S8" t="str">
-        <v/>
+        <v>Ugreen</v>
       </c>
       <c r="T8" t="str">
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="V8" t="str">
         <v/>
@@ -1663,13 +1660,13 @@
         <v/>
       </c>
       <c r="X8" t="str">
-        <v/>
+        <v>1 м</v>
       </c>
       <c r="Y8" t="str">
         <v/>
       </c>
       <c r="Z8" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA8" t="str">
         <v/>
@@ -1747,10 +1744,10 @@
         <v/>
       </c>
       <c r="AZ8" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA8" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB8" t="str">
         <v/>
@@ -1767,10 +1764,10 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>серый</v>
       </c>
       <c r="C9" t="str">
-        <v>Кабель соединительный Ugreen HDMI - DVI-D, 5 м</v>
+        <v>Кабель соединительный Ugreen HDMI - HDMI, 3 м</v>
       </c>
       <c r="D9" t="str">
         <v>1 050 ₽</v>
@@ -1806,7 +1803,7 @@
         <v/>
       </c>
       <c r="O9" t="str">
-        <v>https://c.dns-shop.ru/thumb/st4/fit/500/500/aeb16f9fb855d368109e239ec4911ab9/4e8d1aad9cbec63dab862b9f0e1c18459e4456db2add78b7d9c2c938e614cfdc.jpg</v>
+        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/11a84fbfe32f41240eebef093832e370/af3965d2f0baa97c43019262723029d020a133a2fb9cfcfcec8eed38bbeb6517.jpg</v>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -1818,13 +1815,10 @@
         <v/>
       </c>
       <c r="S9" t="str">
-        <v/>
+        <v>Ugreen</v>
       </c>
       <c r="T9" t="str">
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <v/>
+        <v>кабель соединительный</v>
       </c>
       <c r="V9" t="str">
         <v/>
@@ -1833,13 +1827,13 @@
         <v/>
       </c>
       <c r="X9" t="str">
-        <v/>
+        <v>3 м</v>
       </c>
       <c r="Y9" t="str">
         <v/>
       </c>
       <c r="Z9" t="str">
-        <v/>
+        <v>Кабель-переходник (адаптер)</v>
       </c>
       <c r="AA9" t="str">
         <v/>
@@ -1917,10 +1911,10 @@
         <v/>
       </c>
       <c r="AZ9" t="str">
-        <v/>
+        <v>Китай</v>
       </c>
       <c r="BA9" t="str">
-        <v/>
+        <v>12 мес.</v>
       </c>
       <c r="BB9" t="str">
         <v/>
@@ -1929,12 +1923,352 @@
         <v/>
       </c>
       <c r="BD9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>[CC-DP-HDMI-6]</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Кабель соединительный Cablexpert DisplayPort - HDMI, 1.8 м</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1 099 ₽</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>Видео кабели и переходники</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/603fd48b771ffa02fb10dfd20c91b508/94653c69f1335d2b295f0d7682197ea208b3da8d814fab08b95415d370850849.jpg</v>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v>Cablexpert</v>
+      </c>
+      <c r="T10" t="str">
+        <v>кабель соединительный</v>
+      </c>
+      <c r="U10" t="str">
+        <v>черный</v>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v>1.8 м</v>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <v>Кабель-переходник (адаптер)</v>
+      </c>
+      <c r="AA10" t="str">
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <v>Китай</v>
+      </c>
+      <c r="BA10" t="str">
+        <v>6 мес.</v>
+      </c>
+      <c r="BB10" t="str">
+        <v/>
+      </c>
+      <c r="BC10" t="str">
+        <v/>
+      </c>
+      <c r="BD10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>[CCP-DPM-VGAM-10]</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Кабель соединительный Cablexpert DisplayPort - VGA, 3 м</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1 099 ₽</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Видео кабели и переходники</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v>https://c.dns-shop.ru/thumb/st1/fit/500/500/757baa64eadff5d9fcea5bd900796384/14d75df22199654e04c401b7b9eab31515c9756fc95b238c803bef8c184c68cf.jpg</v>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v>Cablexpert</v>
+      </c>
+      <c r="T11" t="str">
+        <v>кабель соединительный</v>
+      </c>
+      <c r="U11" t="str">
+        <v>черный</v>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v>3 м</v>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <v>Кабель-переходник (адаптер)</v>
+      </c>
+      <c r="AA11" t="str">
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <v>Китай</v>
+      </c>
+      <c r="BA11" t="str">
+        <v>3 мес.</v>
+      </c>
+      <c r="BB11" t="str">
+        <v/>
+      </c>
+      <c r="BC11" t="str">
+        <v/>
+      </c>
+      <c r="BD11" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD11"/>
   </ignoredErrors>
 </worksheet>
 </file>